--- a/xlsxmaps/level_0036.xlsx
+++ b/xlsxmaps/level_0036.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76F67B7-A564-4236-B62A-003483AF8C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023DFAFE-2104-4F47-BCED-31598C0FDBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="25" r:id="rId1"/>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968AC04D-F337-4412-B30C-D4D229FCB73E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1802,13 +1802,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F1" s="2">
         <v>0</v>
@@ -3337,7 +3337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE281B4-3F2C-472E-BC08-17008519798E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E30" sqref="E30:E31"/>
     </sheetView>
   </sheetViews>
@@ -3597,7 +3597,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3664,16 +3664,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E3" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -3768,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="C8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E8" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -3856,7 +3856,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+      <selection activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>

--- a/xlsxmaps/level_0036.xlsx
+++ b/xlsxmaps/level_0036.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023DFAFE-2104-4F47-BCED-31598C0FDBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632EE0A2-A2B4-4AF5-8899-76F664ABAC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层" sheetId="25" r:id="rId1"/>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1365,7 +1365,7 @@
         <v>11000000</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>12000013</v>
       </c>
       <c r="E4" s="2">
         <v>11000000</v>
@@ -1492,13 +1492,13 @@
         <v>11000000</v>
       </c>
       <c r="C9" s="2">
-        <v>11000000</v>
+        <v>12000018</v>
       </c>
       <c r="D9" s="2">
         <v>11000000</v>
       </c>
       <c r="E9" s="2">
-        <v>11000000</v>
+        <v>12000018</v>
       </c>
       <c r="F9" s="2">
         <v>11000000</v>
@@ -1783,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968AC04D-F337-4412-B30C-D4D229FCB73E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -2302,7 +2302,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>12000002</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>11000000</v>
+        <v>12000013</v>
       </c>
       <c r="D6" s="2">
         <v>11000000</v>
       </c>
       <c r="E6" s="2">
-        <v>11000000</v>
+        <v>12000013</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         <v>11000000</v>
       </c>
       <c r="C9" s="2">
-        <v>11000000</v>
+        <v>12000018</v>
       </c>
       <c r="D9" s="2">
         <v>11000000</v>
       </c>
       <c r="E9" s="2">
-        <v>11000000</v>
+        <v>12000018</v>
       </c>
       <c r="F9" s="2">
         <v>11000000</v>
@@ -2561,7 +2561,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2820,7 +2820,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2919,7 +2919,7 @@
         <v>11000000</v>
       </c>
       <c r="D4" s="2">
-        <v>11000000</v>
+        <v>12000002</v>
       </c>
       <c r="E4" s="2">
         <v>11000000</v>
@@ -3046,13 +3046,13 @@
         <v>11000000</v>
       </c>
       <c r="C9" s="2">
-        <v>11000000</v>
+        <v>12000018</v>
       </c>
       <c r="D9" s="2">
         <v>11000000</v>
       </c>
       <c r="E9" s="2">
-        <v>11000000</v>
+        <v>12000018</v>
       </c>
       <c r="F9" s="2">
         <v>11000000</v>

--- a/xlsxmaps/level_0036.xlsx
+++ b/xlsxmaps/level_0036.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\三消\编辑关卡\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\归档2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632EE0A2-A2B4-4AF5-8899-76F664ABAC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE5F24-29F4-4688-98F6-96098BE6B718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="层" sheetId="25" r:id="rId1"/>
-    <sheet name="层 (2)" sheetId="55" r:id="rId2"/>
-    <sheet name="层 (3)" sheetId="56" r:id="rId3"/>
-    <sheet name="层 (4)" sheetId="57" r:id="rId4"/>
-    <sheet name="层 (5)" sheetId="58" r:id="rId5"/>
-    <sheet name="层 (6)" sheetId="59" r:id="rId6"/>
-    <sheet name="层 (7)" sheetId="62" r:id="rId7"/>
-    <sheet name="层 (8)" sheetId="63" r:id="rId8"/>
-    <sheet name="层 (9)" sheetId="64" r:id="rId9"/>
-    <sheet name="层 (10)" sheetId="65" r:id="rId10"/>
-    <sheet name="层 (11)" sheetId="66" r:id="rId11"/>
+    <sheet name="base" sheetId="67" r:id="rId1"/>
+    <sheet name="层" sheetId="25" r:id="rId2"/>
+    <sheet name="层 (2)" sheetId="55" r:id="rId3"/>
+    <sheet name="层 (3)" sheetId="56" r:id="rId4"/>
+    <sheet name="层 (4)" sheetId="57" r:id="rId5"/>
+    <sheet name="层 (5)" sheetId="58" r:id="rId6"/>
+    <sheet name="层 (6)" sheetId="59" r:id="rId7"/>
+    <sheet name="层 (7)" sheetId="62" r:id="rId8"/>
+    <sheet name="层 (8)" sheetId="63" r:id="rId9"/>
+    <sheet name="层 (9)" sheetId="64" r:id="rId10"/>
+    <sheet name="层 (10)" sheetId="65" r:id="rId11"/>
+    <sheet name="层 (11)" sheetId="66" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>layerlevel</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,0,0,0,0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,7 +105,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -101,6 +113,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1262,11 +1283,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F46D01-FA25-44ED-AC49-044BD141AE2D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.65" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7DF7E-0952-41AA-9706-50D1D9108B1A}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1287,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2">
         <v>0</v>
@@ -1310,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D2" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -1339,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1356,25 +1477,25 @@
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
       <c r="A4" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>12000013</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1391,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1417,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1440,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="2">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1489,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>12000018</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>12000018</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1520,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE78EE17-AB75-4B6B-A442-B70597BAD4AE}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1779,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968AC04D-F337-4412-B30C-D4D229FCB73E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2039,6 +2160,265 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98328020-202E-4617-B88F-D8CF9F0B37E4}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="16.28515625" style="1"/>
+    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12000013</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12000018</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12000018</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11000000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3696DB0-7A8C-497C-90FD-86688DA1382F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2297,7 +2677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01DCB00-9CDF-4E08-B131-0C63335D0563}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2556,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18014C58-377C-4889-9C4A-EFB1DD114C69}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2815,7 +3195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F2C729-1956-4E21-AAEF-F65168CE7A13}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3074,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ED1227-7749-4A5B-867C-368FE4E864C0}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3333,7 +3713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE281B4-3F2C-472E-BC08-17008519798E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3592,7 +3972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1098F1BA-EB61-4C0E-93BE-D988C9F3EC98}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3849,263 +4229,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B7DF7E-0952-41AA-9706-50D1D9108B1A}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="16.28515625" style="1"/>
-    <col min="5" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>21000000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>